--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2545.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2545.xlsx
@@ -354,7 +354,7 @@
         <v>2.225504011200879</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.340502082107702</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2545.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2545.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.306001834368167</v>
+        <v>1.741320133209229</v>
       </c>
       <c r="B1">
-        <v>2.225504011200879</v>
+        <v>2.300427436828613</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.234244346618652</v>
       </c>
       <c r="D1">
-        <v>1.340502082107702</v>
+        <v>6.050808906555176</v>
       </c>
       <c r="E1">
-        <v>1.027787784028466</v>
+        <v>0.7055863738059998</v>
       </c>
     </row>
   </sheetData>
